--- a/output/1Y_P76_KFSDIV.xlsx
+++ b/output/1Y_P76_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.1636</v>
       </c>
       <c r="C2" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D2" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.8145</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="F3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="H3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0287</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>11.2352</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E4" s="1">
-        <v>1668.5426</v>
+        <v>1665.2022</v>
       </c>
       <c r="F4" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="H4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.9865</v>
+        <v>12.0106</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9778.0262</v>
+        <v>-9778.470600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.049</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.8241</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E5" s="1">
-        <v>2558.5945</v>
+        <v>2553.4831</v>
       </c>
       <c r="F5" s="1">
-        <v>926.1429000000001</v>
+        <v>924.2854</v>
       </c>
       <c r="H5" s="1">
-        <v>27694.4823</v>
+        <v>27583.7457</v>
       </c>
       <c r="I5" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="J5" s="1">
-        <v>27916.456</v>
+        <v>27805.2751</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.7252</v>
+        <v>11.7487</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10024.6638</v>
+        <v>-10024.6144</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0289</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.2543</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E6" s="1">
-        <v>3484.7374</v>
+        <v>3477.7685</v>
       </c>
       <c r="F6" s="1">
-        <v>890.7408</v>
+        <v>888.9512999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>39218.28</v>
+        <v>39061.5998</v>
       </c>
       <c r="I6" s="1">
-        <v>197.31</v>
+        <v>196.915</v>
       </c>
       <c r="J6" s="1">
-        <v>39415.59</v>
+        <v>39258.5148</v>
       </c>
       <c r="K6" s="1">
-        <v>40024.6638</v>
+        <v>40024.6144</v>
       </c>
       <c r="L6" s="1">
-        <v>11.4857</v>
+        <v>11.5087</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10024.6638</v>
+        <v>-10024.6144</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0395</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.5675</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E7" s="1">
-        <v>4375.4782</v>
+        <v>4366.7197</v>
       </c>
       <c r="F7" s="1">
-        <v>948.6226</v>
+        <v>946.7276000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>46237.8654</v>
+        <v>46053.1728</v>
       </c>
       <c r="I7" s="1">
-        <v>172.6463</v>
+        <v>172.3006</v>
       </c>
       <c r="J7" s="1">
-        <v>46410.5116</v>
+        <v>46225.4734</v>
       </c>
       <c r="K7" s="1">
-        <v>50049.3275</v>
+        <v>50049.2287</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4386</v>
+        <v>11.4615</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>940.8791</v>
+        <v>938.9974999999999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9083.7847</v>
+        <v>-9085.616900000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0608</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E8" s="1">
-        <v>5324.1007</v>
+        <v>5313.4473</v>
       </c>
       <c r="F8" s="1">
-        <v>1021.5187</v>
+        <v>1019.4367</v>
       </c>
       <c r="H8" s="1">
-        <v>53065.3118</v>
+        <v>52853.3917</v>
       </c>
       <c r="I8" s="1">
-        <v>1088.8616</v>
+        <v>1086.6837</v>
       </c>
       <c r="J8" s="1">
-        <v>54154.1734</v>
+        <v>53940.0754</v>
       </c>
       <c r="K8" s="1">
-        <v>60073.9913</v>
+        <v>60073.8431</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2834</v>
+        <v>11.306</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10181.4769</v>
+        <v>-10181.114</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.04</v>
+        <v>-0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.0064</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E9" s="1">
-        <v>6345.6194</v>
+        <v>6332.884</v>
       </c>
       <c r="F9" s="1">
-        <v>1017.4965</v>
+        <v>1015.4205</v>
       </c>
       <c r="H9" s="1">
-        <v>63496.8061</v>
+        <v>63242.7124</v>
       </c>
       <c r="I9" s="1">
-        <v>907.3847</v>
+        <v>905.5698</v>
       </c>
       <c r="J9" s="1">
-        <v>64404.1908</v>
+        <v>64148.2822</v>
       </c>
       <c r="K9" s="1">
-        <v>70255.4682</v>
+        <v>70254.9571</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0715</v>
+        <v>11.0937</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10181.4769</v>
+        <v>-10181.114</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0039</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.0129</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E10" s="1">
-        <v>7363.1159</v>
+        <v>7348.3045</v>
       </c>
       <c r="F10" s="1">
-        <v>1016.836</v>
+        <v>1014.7627</v>
       </c>
       <c r="H10" s="1">
-        <v>73726.1433</v>
+        <v>73430.872</v>
       </c>
       <c r="I10" s="1">
-        <v>725.9077</v>
+        <v>724.4558</v>
       </c>
       <c r="J10" s="1">
-        <v>74452.0511</v>
+        <v>74155.3278</v>
       </c>
       <c r="K10" s="1">
-        <v>80436.9451</v>
+        <v>80436.071</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9243</v>
+        <v>10.9462</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1713.3172</v>
+        <v>1709.8787</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8468.1597</v>
+        <v>-8471.2353</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.4583</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E11" s="1">
-        <v>8379.9519</v>
+        <v>8363.0672</v>
       </c>
       <c r="F11" s="1">
-        <v>1028.1387</v>
+        <v>1025.9343</v>
       </c>
       <c r="H11" s="1">
-        <v>87640.0508</v>
+        <v>87288.6773</v>
       </c>
       <c r="I11" s="1">
-        <v>2257.748</v>
+        <v>2253.2205</v>
       </c>
       <c r="J11" s="1">
-        <v>89897.79889999999</v>
+        <v>89541.8979</v>
       </c>
       <c r="K11" s="1">
-        <v>90618.4221</v>
+        <v>90617.185</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8137</v>
+        <v>10.8354</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10752.5827</v>
+        <v>-10751.0735</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0645</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.3341</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E12" s="1">
-        <v>9408.0906</v>
+        <v>9389.0015</v>
       </c>
       <c r="F12" s="1">
-        <v>1040.4953</v>
+        <v>1038.2695</v>
       </c>
       <c r="H12" s="1">
-        <v>97224.14870000001</v>
+        <v>96832.52800000001</v>
       </c>
       <c r="I12" s="1">
-        <v>1505.1654</v>
+        <v>1502.147</v>
       </c>
       <c r="J12" s="1">
-        <v>98729.314</v>
+        <v>98334.675</v>
       </c>
       <c r="K12" s="1">
-        <v>101371.0047</v>
+        <v>101368.2585</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7749</v>
+        <v>10.7965</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10752.5827</v>
+        <v>-10751.0735</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0117</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10448.5859</v>
+        <v>10427.271</v>
       </c>
       <c r="F13" s="1">
-        <v>1087.8116</v>
+        <v>1085.4846</v>
       </c>
       <c r="H13" s="1">
-        <v>103280.092</v>
+        <v>102862.9434</v>
       </c>
       <c r="I13" s="1">
-        <v>752.5827</v>
+        <v>751.0735</v>
       </c>
       <c r="J13" s="1">
-        <v>104032.6747</v>
+        <v>103614.0169</v>
       </c>
       <c r="K13" s="1">
-        <v>112123.5874</v>
+        <v>112119.332</v>
       </c>
       <c r="L13" s="1">
-        <v>10.731</v>
+        <v>10.7525</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4233.6408</v>
+        <v>4225.0507</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6518.9419</v>
+        <v>-6526.0228</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0432</v>
+        <v>-0.0436</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11536.3975</v>
+        <v>11512.7556</v>
       </c>
       <c r="F14" s="1">
-        <v>-11536.3975</v>
+        <v>-11512.7556</v>
       </c>
       <c r="H14" s="1">
-        <v>114989.042</v>
+        <v>114524.2879</v>
       </c>
       <c r="I14" s="1">
-        <v>4233.6408</v>
+        <v>4225.0507</v>
       </c>
       <c r="J14" s="1">
-        <v>119222.6828</v>
+        <v>118749.3385</v>
       </c>
       <c r="K14" s="1">
-        <v>122876.1701</v>
+        <v>122870.4055</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6512</v>
+        <v>10.6725</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114989.042</v>
+        <v>114524.2879</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0455</v>
+        <v>0.0452</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.1636</v>
       </c>
       <c r="C2" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D2" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.8145</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="F3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0287</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>11.2352</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E4" s="1">
-        <v>1668.5426</v>
+        <v>1665.2022</v>
       </c>
       <c r="F4" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.9865</v>
+        <v>12.0106</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9778.0262</v>
+        <v>-9778.470600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.049</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.8241</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E5" s="1">
-        <v>2558.5945</v>
+        <v>2553.4831</v>
       </c>
       <c r="F5" s="1">
-        <v>944.3717</v>
+        <v>942.4413</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27694.4823</v>
+        <v>27583.7457</v>
       </c>
       <c r="I5" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="J5" s="1">
-        <v>27916.456</v>
+        <v>27805.2751</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.7252</v>
+        <v>11.7487</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10221.9738</v>
+        <v>-10221.5294</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0289</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.2543</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E6" s="1">
-        <v>3502.9662</v>
+        <v>3495.9243</v>
       </c>
       <c r="F6" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="K6" s="1">
-        <v>40221.9738</v>
+        <v>40221.5294</v>
       </c>
       <c r="L6" s="1">
-        <v>11.4823</v>
+        <v>11.5053</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0397</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.5675</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E7" s="1">
-        <v>4391.5154</v>
+        <v>4382.6929</v>
       </c>
       <c r="F7" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="K7" s="1">
-        <v>50221.9738</v>
+        <v>50221.5294</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4361</v>
+        <v>11.4591</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9054.1991</v>
+        <v>-9056.100399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.061</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E8" s="1">
-        <v>5337.8041</v>
+        <v>5327.0959</v>
       </c>
       <c r="F8" s="1">
-        <v>1098.2042</v>
+        <v>1095.8145</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>53201.8933</v>
+        <v>52989.1553</v>
       </c>
       <c r="I8" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="J8" s="1">
-        <v>54147.6941</v>
+        <v>53933.0548</v>
       </c>
       <c r="K8" s="1">
-        <v>60221.9738</v>
+        <v>60221.5294</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2822</v>
+        <v>11.3048</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10945.8009</v>
+        <v>-10943.8996</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0401</v>
+        <v>-0.0407</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.0064</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E9" s="1">
-        <v>6436.0082</v>
+        <v>6422.9104</v>
       </c>
       <c r="F9" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="K9" s="1">
-        <v>71167.7746</v>
+        <v>71165.4289</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0578</v>
+        <v>11.0799</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.0129</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E10" s="1">
-        <v>7435.3687</v>
+        <v>7420.2674</v>
       </c>
       <c r="F10" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="K10" s="1">
-        <v>81167.7746</v>
+        <v>81165.4289</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9164</v>
+        <v>10.9383</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8262.2778</v>
+        <v>-8265.814200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.4583</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E11" s="1">
-        <v>8434.0803</v>
+        <v>8416.9782</v>
       </c>
       <c r="F11" s="1">
-        <v>1122.3356</v>
+        <v>1119.749</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88206.1421</v>
+        <v>87851.36870000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="J11" s="1">
-        <v>89943.86440000001</v>
+        <v>89585.5545</v>
       </c>
       <c r="K11" s="1">
-        <v>91167.7746</v>
+        <v>91165.4289</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8095</v>
+        <v>10.8311</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11737.7222</v>
+        <v>-11734.1858</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06510000000000001</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.3341</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E12" s="1">
-        <v>9556.4159</v>
+        <v>9536.727199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="K12" s="1">
-        <v>102905.4968</v>
+        <v>102899.6147</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7682</v>
+        <v>10.7898</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10524.086</v>
+        <v>10502.4629</v>
       </c>
       <c r="F13" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="K13" s="1">
-        <v>112905.4968</v>
+        <v>112899.6147</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7283</v>
+        <v>10.7498</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5699.6128</v>
+        <v>-5708.4727</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11535.7608</v>
+        <v>11512.1152</v>
       </c>
       <c r="F14" s="1">
-        <v>-11535.7608</v>
+        <v>-11512.1152</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="I14" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="J14" s="1">
-        <v>119283.0826</v>
+        <v>118809.4446</v>
       </c>
       <c r="K14" s="1">
-        <v>122905.4968</v>
+        <v>122899.6147</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0461</v>
+        <v>0.0458</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.1636</v>
       </c>
       <c r="C2" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D2" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.8145</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="F3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0287</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>11.2352</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E4" s="1">
-        <v>1668.5426</v>
+        <v>1665.2022</v>
       </c>
       <c r="F4" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.9865</v>
+        <v>12.0106</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9778.0262</v>
+        <v>-9778.470600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.049</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.8241</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E5" s="1">
-        <v>2558.5945</v>
+        <v>2553.4831</v>
       </c>
       <c r="F5" s="1">
-        <v>944.3717</v>
+        <v>942.4413</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27694.4823</v>
+        <v>27583.7457</v>
       </c>
       <c r="I5" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="J5" s="1">
-        <v>27916.456</v>
+        <v>27805.2751</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.7252</v>
+        <v>11.7487</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10221.9738</v>
+        <v>-10221.5294</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0289</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.2543</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E6" s="1">
-        <v>3502.9662</v>
+        <v>3495.9243</v>
       </c>
       <c r="F6" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="K6" s="1">
-        <v>40221.9738</v>
+        <v>40221.5294</v>
       </c>
       <c r="L6" s="1">
-        <v>11.4823</v>
+        <v>11.5053</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0397</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.5675</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E7" s="1">
-        <v>4391.5154</v>
+        <v>4382.6929</v>
       </c>
       <c r="F7" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="K7" s="1">
-        <v>50221.9738</v>
+        <v>50221.5294</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4361</v>
+        <v>11.4591</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9054.1991</v>
+        <v>-9056.100399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.061</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E8" s="1">
-        <v>5337.8041</v>
+        <v>5327.0959</v>
       </c>
       <c r="F8" s="1">
-        <v>1098.2042</v>
+        <v>1095.8145</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>53201.8933</v>
+        <v>52989.1553</v>
       </c>
       <c r="I8" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="J8" s="1">
-        <v>54147.6941</v>
+        <v>53933.0548</v>
       </c>
       <c r="K8" s="1">
-        <v>60221.9738</v>
+        <v>60221.5294</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2822</v>
+        <v>11.3048</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10945.8009</v>
+        <v>-10943.8996</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0401</v>
+        <v>-0.0407</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.0064</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E9" s="1">
-        <v>6436.0082</v>
+        <v>6422.9104</v>
       </c>
       <c r="F9" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="K9" s="1">
-        <v>71167.7746</v>
+        <v>71165.4289</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0578</v>
+        <v>11.0799</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.0129</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E10" s="1">
-        <v>7435.3687</v>
+        <v>7420.2674</v>
       </c>
       <c r="F10" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="K10" s="1">
-        <v>81167.7746</v>
+        <v>81165.4289</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9164</v>
+        <v>10.9383</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8262.2778</v>
+        <v>-8265.814200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.4583</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E11" s="1">
-        <v>8434.0803</v>
+        <v>8416.9782</v>
       </c>
       <c r="F11" s="1">
-        <v>1122.3356</v>
+        <v>1119.749</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88206.1421</v>
+        <v>87851.36870000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="J11" s="1">
-        <v>89943.86440000001</v>
+        <v>89585.5545</v>
       </c>
       <c r="K11" s="1">
-        <v>91167.7746</v>
+        <v>91165.4289</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8095</v>
+        <v>10.8311</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11737.7222</v>
+        <v>-11734.1858</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06510000000000001</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.3341</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E12" s="1">
-        <v>9556.4159</v>
+        <v>9536.727199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="K12" s="1">
-        <v>102905.4968</v>
+        <v>102899.6147</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7682</v>
+        <v>10.7898</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10524.086</v>
+        <v>10502.4629</v>
       </c>
       <c r="F13" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="K13" s="1">
-        <v>112905.4968</v>
+        <v>112899.6147</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7283</v>
+        <v>10.7498</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5699.6128</v>
+        <v>-5708.4727</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11535.7608</v>
+        <v>11512.1152</v>
       </c>
       <c r="F14" s="1">
-        <v>-11535.7608</v>
+        <v>-11512.1152</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="I14" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="J14" s="1">
-        <v>119283.0826</v>
+        <v>118809.4446</v>
       </c>
       <c r="K14" s="1">
-        <v>122905.4968</v>
+        <v>122899.6147</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0461</v>
+        <v>0.0458</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.1636</v>
       </c>
       <c r="C2" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D2" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.8145</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="F3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0287</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>11.2352</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E4" s="1">
-        <v>1668.5426</v>
+        <v>1665.2022</v>
       </c>
       <c r="F4" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.9865</v>
+        <v>12.0106</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9778.0262</v>
+        <v>-9778.470600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.049</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.8241</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E5" s="1">
-        <v>2558.5945</v>
+        <v>2553.4831</v>
       </c>
       <c r="F5" s="1">
-        <v>944.3717</v>
+        <v>942.4413</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27694.4823</v>
+        <v>27583.7457</v>
       </c>
       <c r="I5" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="J5" s="1">
-        <v>27916.456</v>
+        <v>27805.2751</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.7252</v>
+        <v>11.7487</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10221.9738</v>
+        <v>-10221.5294</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0289</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.2543</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E6" s="1">
-        <v>3502.9662</v>
+        <v>3495.9243</v>
       </c>
       <c r="F6" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="K6" s="1">
-        <v>40221.9738</v>
+        <v>40221.5294</v>
       </c>
       <c r="L6" s="1">
-        <v>11.4823</v>
+        <v>11.5053</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0397</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.5675</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E7" s="1">
-        <v>4391.5154</v>
+        <v>4382.6929</v>
       </c>
       <c r="F7" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="K7" s="1">
-        <v>50221.9738</v>
+        <v>50221.5294</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4361</v>
+        <v>11.4591</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9054.1991</v>
+        <v>-9056.100399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.061</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E8" s="1">
-        <v>5337.8041</v>
+        <v>5327.0959</v>
       </c>
       <c r="F8" s="1">
-        <v>1098.2042</v>
+        <v>1095.8145</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>53201.8933</v>
+        <v>52989.1553</v>
       </c>
       <c r="I8" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="J8" s="1">
-        <v>54147.6941</v>
+        <v>53933.0548</v>
       </c>
       <c r="K8" s="1">
-        <v>60221.9738</v>
+        <v>60221.5294</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2822</v>
+        <v>11.3048</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10945.8009</v>
+        <v>-10943.8996</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0401</v>
+        <v>-0.0407</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.0064</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E9" s="1">
-        <v>6436.0082</v>
+        <v>6422.9104</v>
       </c>
       <c r="F9" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="K9" s="1">
-        <v>71167.7746</v>
+        <v>71165.4289</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0578</v>
+        <v>11.0799</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.0129</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E10" s="1">
-        <v>7435.3687</v>
+        <v>7420.2674</v>
       </c>
       <c r="F10" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="K10" s="1">
-        <v>81167.7746</v>
+        <v>81165.4289</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9164</v>
+        <v>10.9383</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8262.2778</v>
+        <v>-8265.814200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.4583</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E11" s="1">
-        <v>8434.0803</v>
+        <v>8416.9782</v>
       </c>
       <c r="F11" s="1">
-        <v>1122.3356</v>
+        <v>1119.749</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88206.1421</v>
+        <v>87851.36870000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="J11" s="1">
-        <v>89943.86440000001</v>
+        <v>89585.5545</v>
       </c>
       <c r="K11" s="1">
-        <v>91167.7746</v>
+        <v>91165.4289</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8095</v>
+        <v>10.8311</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11737.7222</v>
+        <v>-11734.1858</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06510000000000001</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.3341</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E12" s="1">
-        <v>9556.4159</v>
+        <v>9536.727199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="K12" s="1">
-        <v>102905.4968</v>
+        <v>102899.6147</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7682</v>
+        <v>10.7898</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10524.086</v>
+        <v>10502.4629</v>
       </c>
       <c r="F13" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="K13" s="1">
-        <v>112905.4968</v>
+        <v>112899.6147</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7283</v>
+        <v>10.7498</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5699.6128</v>
+        <v>-5708.4727</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11535.7608</v>
+        <v>11512.1152</v>
       </c>
       <c r="F14" s="1">
-        <v>-11535.7608</v>
+        <v>-11512.1152</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="I14" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="J14" s="1">
-        <v>119283.0826</v>
+        <v>118809.4446</v>
       </c>
       <c r="K14" s="1">
-        <v>122905.4968</v>
+        <v>122899.6147</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0461</v>
+        <v>0.0458</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.1636</v>
       </c>
       <c r="C2" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D2" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.8145</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E3" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="F3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9712.9962</v>
+        <v>9674.1877</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0287</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>11.2352</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E4" s="1">
-        <v>1668.5426</v>
+        <v>1665.2022</v>
       </c>
       <c r="F4" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18746.4094</v>
+        <v>18671.4124</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.9865</v>
+        <v>12.0106</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9778.0262</v>
+        <v>-9778.470600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.049</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.8241</v>
       </c>
       <c r="C5" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D5" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E5" s="1">
-        <v>2558.5945</v>
+        <v>2553.4831</v>
       </c>
       <c r="F5" s="1">
-        <v>944.3717</v>
+        <v>942.4413</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27694.4823</v>
+        <v>27583.7457</v>
       </c>
       <c r="I5" s="1">
-        <v>221.9738</v>
+        <v>221.5294</v>
       </c>
       <c r="J5" s="1">
-        <v>27916.456</v>
+        <v>27805.2751</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.7252</v>
+        <v>11.7487</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10221.9738</v>
+        <v>-10221.5294</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0289</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.2543</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E6" s="1">
-        <v>3502.9662</v>
+        <v>3495.9243</v>
       </c>
       <c r="F6" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39423.4321</v>
+        <v>39265.523</v>
       </c>
       <c r="K6" s="1">
-        <v>40221.9738</v>
+        <v>40221.5294</v>
       </c>
       <c r="L6" s="1">
-        <v>11.4823</v>
+        <v>11.5053</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0397</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.5675</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E7" s="1">
-        <v>4391.5154</v>
+        <v>4382.6929</v>
       </c>
       <c r="F7" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46407.3393</v>
+        <v>46221.6321</v>
       </c>
       <c r="K7" s="1">
-        <v>50221.9738</v>
+        <v>50221.5294</v>
       </c>
       <c r="L7" s="1">
-        <v>11.4361</v>
+        <v>11.4591</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9054.1991</v>
+        <v>-9056.100399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.061</v>
+        <v>-0.0618</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E8" s="1">
-        <v>5337.8041</v>
+        <v>5327.0959</v>
       </c>
       <c r="F8" s="1">
-        <v>1098.2042</v>
+        <v>1095.8145</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53201.8933</v>
+        <v>52989.1553</v>
       </c>
       <c r="I8" s="1">
-        <v>945.8009</v>
+        <v>943.8996</v>
       </c>
       <c r="J8" s="1">
-        <v>54147.6941</v>
+        <v>53933.0548</v>
       </c>
       <c r="K8" s="1">
-        <v>60221.9738</v>
+        <v>60221.5294</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2822</v>
+        <v>11.3048</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10945.8009</v>
+        <v>-10943.8996</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0401</v>
+        <v>-0.0407</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.0064</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E9" s="1">
-        <v>6436.0082</v>
+        <v>6422.9104</v>
       </c>
       <c r="F9" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64401.2729</v>
+        <v>64141.7522</v>
       </c>
       <c r="K9" s="1">
-        <v>71167.7746</v>
+        <v>71165.4289</v>
       </c>
       <c r="L9" s="1">
-        <v>11.0578</v>
+        <v>11.0799</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.004</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.0129</v>
       </c>
       <c r="C10" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E10" s="1">
-        <v>7435.3687</v>
+        <v>7420.2674</v>
       </c>
       <c r="F10" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>74449.60279999999</v>
+        <v>74149.9899</v>
       </c>
       <c r="K10" s="1">
-        <v>81167.7746</v>
+        <v>81165.4289</v>
       </c>
       <c r="L10" s="1">
-        <v>10.9164</v>
+        <v>10.9383</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8262.2778</v>
+        <v>-8265.814200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.4583</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E11" s="1">
-        <v>8434.0803</v>
+        <v>8416.9782</v>
       </c>
       <c r="F11" s="1">
-        <v>1122.3356</v>
+        <v>1119.749</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>88206.1421</v>
+        <v>87851.36870000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1737.7222</v>
+        <v>1734.1858</v>
       </c>
       <c r="J11" s="1">
-        <v>89943.86440000001</v>
+        <v>89585.5545</v>
       </c>
       <c r="K11" s="1">
-        <v>91167.7746</v>
+        <v>91165.4289</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8095</v>
+        <v>10.8311</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11737.7222</v>
+        <v>-11734.1858</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06510000000000001</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.3341</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E12" s="1">
-        <v>9556.4159</v>
+        <v>9536.727199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>98756.9575</v>
+        <v>98356.0828</v>
       </c>
       <c r="K12" s="1">
-        <v>102905.4968</v>
+        <v>102899.6147</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7682</v>
+        <v>10.7898</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10524.086</v>
+        <v>10502.4629</v>
       </c>
       <c r="F13" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>104026.3808</v>
+        <v>103604.6965</v>
       </c>
       <c r="K13" s="1">
-        <v>112905.4968</v>
+        <v>112899.6147</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7283</v>
+        <v>10.7498</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5699.6128</v>
+        <v>-5708.4727</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0435</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D14" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11535.7608</v>
+        <v>11512.1152</v>
       </c>
       <c r="F14" s="1">
-        <v>-11535.7608</v>
+        <v>-11512.1152</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="I14" s="1">
-        <v>4300.3872</v>
+        <v>4291.5273</v>
       </c>
       <c r="J14" s="1">
-        <v>119283.0826</v>
+        <v>118809.4446</v>
       </c>
       <c r="K14" s="1">
-        <v>122905.4968</v>
+        <v>122899.6147</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114982.6954</v>
+        <v>114517.9174</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0461</v>
+        <v>0.0458</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6512</v>
+        <v>10.6725</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="E3" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="F3" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
       <c r="G3" s="1">
-        <v>10.6543</v>
+        <v>10.6757</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1903</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1082</v>
+        <v>-0.1207</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1076</v>
+        <v>-0.12</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1076</v>
+        <v>-0.12</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1076</v>
+        <v>-0.12</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1076</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1191</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1349</v>
+        <v>0.1359</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1357</v>
+        <v>0.1367</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1357</v>
+        <v>0.1367</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1357</v>
+        <v>0.1367</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1357</v>
+        <v>0.1367</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.7691</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.9530999999999999</v>
+        <v>-1.0374</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.9424</v>
+        <v>-1.0266</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.9424</v>
+        <v>-1.0266</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.9424</v>
+        <v>-1.0266</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.9424</v>
+        <v>-1.0266</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0195</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0184</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0184</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0184</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7109.8108</v>
+        <v>7095.4562</v>
       </c>
       <c r="D8" s="1">
-        <v>7205.884</v>
+        <v>7191.142</v>
       </c>
       <c r="E8" s="1">
-        <v>7205.884</v>
+        <v>7191.142</v>
       </c>
       <c r="F8" s="1">
-        <v>7205.884</v>
+        <v>7191.142</v>
       </c>
       <c r="G8" s="1">
-        <v>7205.884</v>
+        <v>7191.142</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P76_KFSDIV.xlsx
+++ b/output/1Y_P76_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8413.0934</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9705</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9705</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9704</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9704</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
